--- a/docs/PT2ov/PT2ov_12.11.2024_output.xlsx
+++ b/docs/PT2ov/PT2ov_12.11.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L75"/>
+  <dimension ref="A1:N75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731607240.1199012</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731607240.9247522</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731607240.1199012.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731607240.9247522.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>136.85</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>136.7</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.1500000000000057</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731607246.4190183</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731607246.8947732</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731607246.4190183.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731607246.8947732.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>136</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>135.8</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.1999999999999886</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731607250.0852375</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731607252.5238888</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731607250.0852375.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731607252.5238888.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>135.64</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>135.4</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.2399999999999807</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731607254.5165563</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731607256.7824955</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731607254.5165563.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731607256.7824955.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>135.12</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>135.15</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-0.03000000000000114</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -747,95 +787,107 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731607258.4370959</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731607258.4370959.png</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+          <t>./test_images/GAZP1731607258.4370959.png</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>135.18</v>
       </c>
-      <c r="J7" t="n">
-        <v>135.18</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>135.34</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.1599999999999966</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731607264.3821902</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731607272.0805676</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731607264.3821902.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731607272.0805676.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>7050.5</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>7010.5</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-40</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>-0.5700000000000001</v>
       </c>
     </row>
@@ -843,51 +895,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731607272.0955265</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731607273.8857381</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731607272.0955265.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731607273.8857381.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>7010.5</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>6999</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>11.5</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -895,95 +953,107 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731607285.312351</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731607285.312351.png</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731607285.312351.png</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>7004.5</v>
       </c>
-      <c r="J10" t="n">
-        <v>7004.5</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>7006.5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731607288.8120165</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731607291.167718</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731607288.8120165.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731607291.167718.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>492.45</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>491.55</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-0.8999999999999773</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -991,51 +1061,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731607298.0782273</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731607299.7068696</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731607298.0782273.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731607299.7068696.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>489.75</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>488.7</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>1.050000000000011</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -1043,51 +1119,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731607302.587136</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731607304.8144581</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731607302.587136.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731607304.8144581.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>486.85</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>486.45</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.4000000000000341</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1095,51 +1177,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731607306.137078</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731607306.7424242</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731607306.137078.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731607306.7424242.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>486.55</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>484.5</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>2.050000000000011</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -1147,95 +1235,107 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731607308.4249525</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731607308.4249525.png</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+          <t>./test_images/ROSN1731607308.4249525.png</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>485.05</v>
       </c>
-      <c r="J15" t="n">
-        <v>485.05</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>484.5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.5500000000000114</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731607309.75736</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731607310.3229911</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731607309.75736.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731607310.3229911.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>940.2</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>941</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.7999999999999545</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -1243,51 +1343,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731607311.0131462</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731607311.5387666</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731607311.0131462.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731607311.5387666.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>941.6</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>946</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>4.399999999999977</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.47</v>
       </c>
     </row>
@@ -1295,51 +1401,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731607312.576961</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731607315.1789997</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731607312.576961.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731607315.1789997.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>945.8</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>948.2</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>2.400000000000091</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -1347,51 +1459,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731607316.1982725</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731607317.7678893</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731607316.1982725.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731607317.7678893.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>945.8</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>946.2</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.4000000000000909</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -1399,51 +1517,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731607320.1156096</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731607320.5933318</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731607320.1156096.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731607320.5933318.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>941</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>940.2</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.7999999999999545</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -1451,51 +1575,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731607321.792153</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731607323.8267076</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731607321.792153.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731607323.8267076.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>938</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>937.6</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.3999999999999773</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -1503,51 +1633,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731607325.9220738</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731607325.9749322</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731607325.9220738.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731607325.9749322.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>935.2</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>934.8</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.4000000000000909</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -1555,51 +1691,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731607334.615815</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731607337.2198758</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731607334.615815.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731607337.2198758.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>37.995</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>37.98</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.01500000000000057</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -1607,51 +1749,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731607339.3332229</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731607341.3618007</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731607339.3332229.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731607341.3618007.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>37.88</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>37.875</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.005000000000002558</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -1659,51 +1807,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731607347.6668985</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731607349.221739</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731607347.6668985.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731607349.221739.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>38.13</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>38.18</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.04999999999999716</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -1711,95 +1865,107 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731607355.802134</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731607355.802134.png</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+          <t>./test_images/MAGN1731607355.802134.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>38.035</v>
       </c>
-      <c r="J26" t="n">
-        <v>38.035</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>38.065</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-0.03000000000000114</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731607362.1232228</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731607363.5653918</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731607362.1232228.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731607363.5653918.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>1245.8</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>1246.2</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.4000000000000909</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -1807,51 +1973,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731607367.9835443</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731607369.2840946</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731607367.9835443.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731607369.2840946.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>1243.4</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>1240</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>3.400000000000091</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -1859,51 +2031,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731607369.9472904</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731607371.0413911</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731607369.9472904.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731607371.0413911.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>1241.4</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>1244</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-2.599999999999909</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -1911,51 +2089,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731607372.6400878</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731607372.7717352</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731607372.6400878.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731607372.7717352.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>1241.6</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>1239</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>2.599999999999909</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -1963,51 +2147,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731607372.9771845</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731607373.033035</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731607372.9771845.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731607373.033035.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>1241.2</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>1240.8</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.4000000000000909</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -2015,51 +2205,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731607373.0878882</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731607373.6444352</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731607373.0878882.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731607373.6444352.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>1241.6</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>1239.4</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>2.199999999999818</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -2067,51 +2263,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731607375.3349054</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731607377.3365216</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731607375.3349054.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731607377.3365216.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>1237.6</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>1233.4</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>4.199999999999818</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -2119,95 +2321,107 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731607378.2710214</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731607378.2710214.png</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+          <t>./test_images/CHMF1731607378.2710214.png</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>1235</v>
       </c>
-      <c r="J34" t="n">
-        <v>1235</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1240.2</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-5.200000000000045</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-0.42</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731607381.7539902</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731607382.469638</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731607381.7539902.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731607382.469638.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>80.86</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>81.05</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.1899999999999977</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -2215,51 +2429,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731607384.824804</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731607386.0396273</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731607384.824804.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731607386.0396273.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>81.18000000000001</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>81.18000000000001</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2267,51 +2487,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731607386.5233612</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731607387.9026718</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731607386.5233612.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731607387.9026718.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>81.06</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>81.14</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.07999999999999829</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -2319,51 +2545,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731607391.1858704</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731607392.4335563</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731607391.1858704.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731607392.4335563.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>80.88</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>81</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-0.1200000000000045</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -2371,51 +2603,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731607394.5215058</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731607396.1521435</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731607394.5215058.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731607396.1521435.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>80.79000000000001</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>80.77</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.02000000000001023</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -2423,51 +2661,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731607397.548429</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731607398.075023</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731607397.548429.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731607398.075023.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>80.7</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>80.3</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.4000000000000057</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -2475,51 +2719,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731607399.1730847</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731607401.1178823</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731607399.1730847.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731607401.1178823.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>80.43000000000001</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>80.44</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-0.009999999999990905</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -2527,95 +2777,107 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731607402.3016868</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731607402.3016868.png</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+          <t>./test_images/VTBR1731607402.3016868.png</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>80.45</v>
       </c>
-      <c r="J42" t="n">
-        <v>80.45</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>80.95999999999999</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-0.5099999999999909</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.63</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731607417.761329</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731607419.8766694</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731607417.761329.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731607419.8766694.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>14.434</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>14.441</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-0.00700000000000145</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -2623,51 +2885,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731607420.762328</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731607421.445472</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731607420.762328.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731607421.445472.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>14.429</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>14.392</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.03700000000000081</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -2675,51 +2943,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731607422.501675</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731607424.8075054</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731607422.501675.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731607424.8075054.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>14.37</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>14.357</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.0129999999999999</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -2727,51 +3001,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731607426.2246861</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731607426.278542</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731607426.2246861.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731607426.278542.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>14.37</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>14.38</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-0.01000000000000156</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -2779,51 +3059,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731607433.6274967</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731607435.434664</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731607433.6274967.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731607435.434664.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>106.87</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>107.03</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.1599999999999966</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -2831,51 +3117,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731607436.3033092</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731607437.8342435</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731607436.3033092.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731607437.8342435.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>107.03</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>106.94</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-0.09000000000000341</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -2883,51 +3175,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731607440.0443008</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731607441.08654</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731607440.0443008.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731607441.08654.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>106.86</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>106.4</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.4599999999999937</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>0.43</v>
       </c>
     </row>
@@ -2935,51 +3233,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731607442.1127667</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731607443.68955</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731607442.1127667.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731607443.68955.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>106.27</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>106.18</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.0899999999999892</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -2987,51 +3291,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731607445.0469468</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731607445.6373374</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731607445.0469468.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731607445.6373374.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>105.95</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>105.87</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.07999999999999829</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -3039,51 +3349,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731607445.8099043</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731607448.7370446</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731607445.8099043.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731607448.7370446.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>105.91</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>105.95</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>-0.04000000000000625</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -3091,51 +3407,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731607449.451134</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731607449.5059872</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731607449.451134.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731607449.5059872.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>105.89</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>105.77</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.1200000000000045</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -3143,51 +3465,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731607450.0176487</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731607450.1113677</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731607450.0176487.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731607450.1113677.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>105.9</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>106.03</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>-0.1299999999999955</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -3195,51 +3523,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731607453.4863384</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731607453.5790899</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731607453.4863384.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731607453.5790899.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>106.17</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>106.27</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.09999999999999432</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -3247,95 +3581,107 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731607453.6349406</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731607453.6349406.png</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731607453.6349406.png</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>106.2</v>
       </c>
-      <c r="J56" t="n">
-        <v>106.2</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0</v>
-      </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>106.1</v>
+      </c>
+      <c r="M56" t="n">
+        <v>-0.1000000000000085</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731607465.4293888</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731607466.601454</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731607465.4293888.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731607466.601454.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>349.01</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>348.73</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.2799999999999727</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -3343,51 +3689,57 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731607469.078798</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731607469.8996305</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731607469.078798.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731607469.8996305.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>347.19</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>346.16</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>1.029999999999973</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -3395,95 +3747,107 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731607471.0026805</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>./test_images/BSPB1731607471.0026805.png</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+          <t>./test_images/BSPB1731607471.0026805.png</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>346.16</v>
       </c>
-      <c r="J59" t="n">
-        <v>346.16</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0</v>
-      </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>347.25</v>
+      </c>
+      <c r="M59" t="n">
+        <v>-1.089999999999975</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-0.31</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731607476.9198484</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731607480.389569</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/MXI1731607476.9198484.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/MXI1731607480.389569.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>2796.1</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>2791.8</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>-4.299999999999727</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -3491,51 +3855,57 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731607482.8739216</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731607483.5102167</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/MXI1731607482.8739216.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/MXI1731607483.5102167.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>2785.3</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>2781</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>4.300000000000182</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -3543,51 +3913,57 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731607484.771845</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731607485.9088075</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/MXI1731607484.771845.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/MXI1731607485.9088075.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>2787.45</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>2783.2</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>4.25</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -3595,51 +3971,57 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731607486.811389</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731607487.5583904</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/MXI1731607486.811389.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/MXI1731607487.5583904.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>2783</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>2783.45</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>-0.4499999999998181</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -3647,51 +4029,57 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731607489.7624936</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731607489.9010959</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/MXI1731607489.7624936.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/MXI1731607489.9010959.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>2781.4</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>2780.35</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>1.050000000000182</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -3699,51 +4087,57 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731607489.9549782</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731607490.2780967</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/MXI1731607489.9549782.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/MXI1731607490.2780967.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>2780.95</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>2775.45</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>5.5</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -3751,51 +4145,57 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731607491.019846</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731607493.3934956</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/MXI1731607491.019846.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/MXI1731607493.3934956.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>2776.2</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>2780.25</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>-4.050000000000182</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -3803,51 +4203,57 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731607494.8476055</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731607494.9014614</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/MXI1731607494.8476055.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/MXI1731607494.9014614.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>2776.65</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>2776.3</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>0.3499999999999091</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -3855,51 +4261,57 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731607494.993217</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731607498.3532264</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/MXI1731607494.993217.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/MXI1731607498.3532264.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>2776.35</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>2778.1</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>-1.75</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -3907,51 +4319,57 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731607498.4489987</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731607499.2876306</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/TATN1731607498.4489987.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/TATN1731607499.2876306.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>596.5</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>597.9</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>1.399999999999977</v>
       </c>
-      <c r="L69" t="n">
+      <c r="N69" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -3959,51 +4377,57 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731607500.2271438</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731607505.2686565</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/TATN1731607500.2271438.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/TATN1731607505.2686565.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>598.1</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>592.3</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>-5.800000000000068</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>-0.97</v>
       </c>
     </row>
@@ -4011,51 +4435,57 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731607505.284614</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731607505.8082125</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/TATN1731607505.284614.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/TATN1731607505.8082125.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>592.3</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>591.2</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>1.099999999999909</v>
       </c>
-      <c r="L71" t="n">
+      <c r="N71" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -4063,51 +4493,57 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731607506.4823825</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731607510.324131</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/TATN1731607506.4823825.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/TATN1731607510.324131.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>592.4</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>593.5</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>-1.100000000000023</v>
       </c>
-      <c r="L72" t="n">
+      <c r="N72" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -4115,51 +4551,57 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731607512.6558938</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731607515.8144536</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/TATN1731607512.6558938.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/TATN1731607515.8144536.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>595.2</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>593.9</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>-1.300000000000068</v>
       </c>
-      <c r="L73" t="n">
+      <c r="N73" t="n">
         <v>-0.22</v>
       </c>
     </row>
@@ -4167,51 +4609,57 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731607518.9111953</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731607520.5587876</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/TATN1731607518.9111953.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/TATN1731607520.5587876.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>591.9</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>590</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>1.899999999999977</v>
       </c>
-      <c r="L74" t="n">
+      <c r="N74" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -4219,51 +4667,57 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731607521.585042</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731607522.2582405</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/TATN1731607521.585042.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/TATN1731607522.2582405.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>short</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>590</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>588.9</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>1.100000000000023</v>
       </c>
-      <c r="L75" t="n">
+      <c r="N75" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -4325,19 +4779,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7499999999999716</v>
+        <v>0.6499999999999631</v>
       </c>
       <c r="C2" t="n">
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07499999999999715</v>
+        <v>0.06499999999999631</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7</v>
+        <v>0.61</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="3">
@@ -4369,19 +4823,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.59999999999991</v>
+        <v>5.399999999999864</v>
       </c>
       <c r="C4" t="n">
         <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>1.324999999999989</v>
+        <v>0.6749999999999829</v>
       </c>
       <c r="E4" t="n">
-        <v>0.85</v>
+        <v>0.43</v>
       </c>
       <c r="F4" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="5">
@@ -4391,19 +4845,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5600000000000165</v>
+        <v>0.05000000000002558</v>
       </c>
       <c r="C5" t="n">
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>0.07000000000000206</v>
+        <v>0.006250000000003197</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.05999999999999994</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="6">
@@ -4457,19 +4911,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5599999999999739</v>
+        <v>0.3999999999999773</v>
       </c>
       <c r="C8" t="n">
         <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1119999999999948</v>
+        <v>0.07999999999999545</v>
       </c>
       <c r="E8" t="n">
-        <v>0.42</v>
+        <v>0.3</v>
       </c>
       <c r="F8" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="9">
@@ -4479,19 +4933,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.60000000000008</v>
+        <v>3.150000000000091</v>
       </c>
       <c r="C9" t="n">
         <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5200000000000159</v>
+        <v>0.6300000000000182</v>
       </c>
       <c r="E9" t="n">
-        <v>0.53</v>
+        <v>0.64</v>
       </c>
       <c r="F9" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="10">
@@ -4523,19 +4977,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.07000000000000028</v>
+        <v>0.03999999999999915</v>
       </c>
       <c r="C11" t="n">
         <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01750000000000007</v>
+        <v>0.009999999999999787</v>
       </c>
       <c r="E11" t="n">
-        <v>0.18</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="12">
@@ -4545,19 +4999,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.309999999999945</v>
+        <v>0.2199999999999704</v>
       </c>
       <c r="C12" t="n">
         <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4366666666666485</v>
+        <v>0.07333333333332348</v>
       </c>
       <c r="E12" t="n">
-        <v>0.38</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>0.13</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="13">
@@ -4567,19 +5021,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-28.5</v>
+        <v>-26.5</v>
       </c>
       <c r="C13" t="n">
         <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>-9.5</v>
+        <v>-8.833333333333334</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.41</v>
+        <v>-0.3800000000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.14</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="14">
